--- a/Experiments/Closed_loop/Open_loop_experiment by Nayab.xlsx
+++ b/Experiments/Closed_loop/Open_loop_experiment by Nayab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Bristol_Robotics_MSc/Robotics_systems/Github/Experiments/Closed_loop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F556C7-DAB4-E048-BB00-C9E8F7165DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C330A-C410-6E44-B381-2E7533854555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{E6BF64B5-3D42-4342-8C5E-5139F17F67C2}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Distance</a:t>
+                  <a:t>X-axis,Distance</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
@@ -1618,7 +1618,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Distance in mm</a:t>
+                  <a:t>Y aaxis, Distance in mm</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5646,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3534430C-A03A-44CD-B4C7-46506387720E}">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:C240"/>
+    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5720,7 +5720,7 @@
         <v>-0.1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G2:G33" si="0">ABS(E3-B3)</f>
+        <f t="shared" ref="G3:G33" si="0">ABS(E3-B3)</f>
         <v>0.1</v>
       </c>
       <c r="I3" s="4">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F2:F33" si="1">(E4-B4)</f>
+        <f t="shared" ref="F4:F33" si="1">(E4-B4)</f>
         <v>-0.26</v>
       </c>
       <c r="G4">
@@ -6522,11 +6522,11 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="3">(E34-B34)</f>
+        <f t="shared" ref="F34:F45" si="3">(E34-B34)</f>
         <v>-8.2100000000000009</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G50" si="4">ABS(E34-B34)</f>
+        <f t="shared" ref="G34:G45" si="4">ABS(E34-B34)</f>
         <v>8.2100000000000009</v>
       </c>
       <c r="I34" s="4">
@@ -6886,7 +6886,7 @@
         <v>500</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F46:F52" si="6">(D48-A48)</f>
+        <f t="shared" ref="F48:F52" si="6">(D48-A48)</f>
         <v>-15.080000000000041</v>
       </c>
       <c r="G48">
@@ -7016,11 +7016,11 @@
         <v>500</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F51:F98" si="7">(D53-A53)</f>
+        <f t="shared" ref="F53:F98" si="7">(D53-A53)</f>
         <v>-25.919999999999959</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G51:G98" si="8">ABS(D53-A53)</f>
+        <f t="shared" ref="G53:G98" si="8">ABS(D53-A53)</f>
         <v>25.919999999999959</v>
       </c>
       <c r="I53" s="4">
@@ -8238,7 +8238,7 @@
         <v>500</v>
       </c>
       <c r="F100">
-        <f t="shared" ref="F99:F145" si="11">(E100-B100)</f>
+        <f t="shared" ref="F100:F144" si="11">(E100-B100)</f>
         <v>-15.740000000000009</v>
       </c>
       <c r="G100">
